--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -4408,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
+      <selection sqref="A1:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="622">
   <si>
     <t>Marilyn Monroe</t>
   </si>
@@ -1884,7 +1884,25 @@
     <t>Total count</t>
   </si>
   <si>
-    <t>Divorce rate</t>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Forbes Top 100 Richest Celebrities</t>
   </si>
 </sst>
 </file>
@@ -2849,8 +2867,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Forbes Top 100 Richest Celebrity Divorce rate</a:t>
+              <a:t>Divorce Rates around the</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> world</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2888,23 +2911,12 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Forbes Top 100 Richest Divorce'!$E$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Divorce rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2915,14 +2927,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Forbes Top 100 Richest Divorce'!$E$7:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Forbes Top 100 Richest Celebrities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Forbes Top 100 Richest Divorce'!$F$7</c:f>
+              <c:f>'Forbes Top 100 Richest Divorce'!$F$7:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>51.35135135135135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,17 +2995,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1096445456"/>
-        <c:axId val="1092702448"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1125439696"/>
+        <c:axId val="1125506304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1096445456"/>
+        <c:axId val="1125439696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2983,7 +3044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092702448"/>
+        <c:crossAx val="1125506304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2991,12 +3052,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092702448"/>
+        <c:axId val="1125506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3041,7 +3102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1096445456"/>
+        <c:crossAx val="1125439696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3690,7 +3751,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3894,23 +3955,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4015,8 +4075,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4148,20 +4208,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4233,20 +4292,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8119,10 +8178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8188,11 +8247,59 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F7">
         <f>19/37*100</f>
         <v>51.351351351351347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
